--- a/data/task2_train_reformat.xlsx
+++ b/data/task2_train_reformat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\workspace\比赛\CCKS_EE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15637\Desktop\CCKS2020技术评测-面向中文电子病历的医疗实体及事件抽取\CCKS_EE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210A33F1-4A52-4079-B471-C70DF9817BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -2095,9 +2094,6 @@
     <t>左乳MT综合治疗后:左侧胸壁(4-5前肋间)、左侧胸膜、前纵隔转移;双侧锁骨区淋巴结转移;多处骨转移;双侧胸腔积液;盆腔积液;左腋窝糖代谢增高,转移不除外,请结合临床;左肺下叶钙化灶;左侧附件区生理性改变可能,请结合临床随访;子宫多发肌瘤。禁食6小时余,静脉注射 18 F-FDG后,休息约60分钟,行全身PET/CT断层显像。 脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。 眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。 鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。右侧上颌窦内粘膜增厚影,考虑为慢性炎症。 颈部PET/CT图像示双侧锁骨区见糖代谢异常增高的淋巴结,较大者大小约为9.2×6.7MM,最大SUV值为6.3;甲状腺等均未见明显糖代谢异常增高灶。 胸部PET/CT图像示左乳MT术后;左侧腋窝局部呈轻度糖代谢异常增高,最大SUV值为2.0;右侧乳腺未见明显占位,右侧腋窝无肿大淋巴结。双侧胸腔积液;左侧胸膜不均匀增厚,伴糖代谢异常增高,最大SUV值为6.1;前纵隔软组织影增厚,伴糖代谢异常增高,最大SUV值为4.8;左侧胸壁4-5前肋间糖代谢异常增高,最大SUV值为3.8;左肺下叶见钙化灶。 腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,左叶见直径约为7.0MM囊性低密度灶;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。 盆部PET/CT图像示左侧附件区呈糖代谢增高,最大SUV值为4.7;子宫体积增大,见多发等密度突起;膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;双侧腹股沟处未见明显糖代谢异常增强。盆腔和双侧腹股沟无肿大淋巴结;盆腔积液。 骨骼PET/CT图像示双侧胸肋多处、胸骨、脊柱多处、骨盆多处、双侧股骨上段见多发糖代谢异常增高灶,最大SUV值为7.9,部分区见骨质密度增高,其中右侧第4前肋骨皮质连续性中断。</t>
   </si>
   <si>
-    <t>:左侧胸壁(4-5前肋间),左侧胸膜,前纵隔,双侧锁骨区淋巴结,骨,左腋窝</t>
-  </si>
-  <si>
     <t>左上肺癌术后放化疗后复查,与2016-05-05 CT片对比:左上肺术后缺失,左肺上叶支气管残端见金属影,局部未见软组织影及强化灶。左残肺见斑片状及条索状病变,边界不清,病灶密度不均匀,较前未见明显变化。右肺上叶前段见一点状致密灶,同前相仿。右肺上叶后段见少许斑片状密度增高影,边界不清,密度不均匀,大致同前。右侧斜裂、水平裂各见一小结节,较大者直径约3 MM,较前相仿。左肺下叶前内基底段(SE4,IM26)、右肺上叶后段(SE4,IM19)各见一结节,较大者直径约4MM,边界清晰。双侧锁骨上窝、右上气管旁、隆突下及右肺门见数个淋巴结,边界欠清,较大者短径约10 MM,增强扫描中度强化,较前相仿。左侧胸膜不均匀明显增厚。双侧胸腔未见积液。 肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S 4见一稍低密度区,大小约为 13MM× 12MM,边界尚清,密度尚均匀,轻度强化,较前缩小。肝S4、5、8见多个囊性灶,边界清,较大者约10MM×6MM,未见强化,大致同前。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉所见正常。 胃左、腹腔干周围、腹主动脉旁、肠系膜区见多发淋巴结,边界欠清,部分互相融合,较大者大小约22MM×17MM,增强扫描不均匀轻中度强化,部分淋巴结内见坏死灶,包绕腹腔干及肠系膜上动脉,较前未见明显变化。左侧肾上腺见多发结节,最大者约19MM×15MM,增强扫描呈不均匀强化。 双肾及右侧肾上腺未见异常。脾及胰腺大小、形态正常,密度均匀。膀胱充盈良好,境界清楚。精囊大小、形态未见异常,密度均匀,膀胱精囊角存在。 前列腺大小、形态未见异常,密度欠均匀,内见多发斑点状致密影。直肠未见明显异常。 双侧髂血管旁、腹股沟未见肿大淋巴结。左第6后肋骨术后改变;右侧坐骨见一类圆形低密度影,直径约15MM,边界清,未见硬化边;第1、2骶椎右侧块见溶骨性骨质破坏,周围见软组织肿块影,增强扫描呈明显强化,余所见骨质未见明显破坏征象。左上肺癌术后放化疗后复查,与2016-05-05 CT片对比:左上肺术后缺失,左残肺条索影及斑片灶,大致同前,考虑放射性肺炎。右肺上叶后段斑片影,考虑炎性改变,大致同前。左肺下叶前内基底段、右肺上叶后段结节,考虑转移瘤可能性大,右上肺叶结节为新增病灶。右侧斜裂、水平裂小结节,较前未见明显变化。左侧胸膜增厚,考虑种植,大致同前。双侧锁骨上、纵隔及右肺门多发淋巴结,较前未见明显变化。 肝S 4结节,较前缩小,考虑转移瘤。肝囊肿。左侧肾上腺多发转移瘤。 腹腔及腹膜后多发淋巴结,部分肿大,考虑转移,较前未见明显变化。 右侧坐骨、第1、2骶椎右侧块骨质破坏,考虑转移瘤。</t>
   </si>
   <si>
@@ -6092,13 +6088,17 @@
   </si>
   <si>
     <t>32MM×28MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧胸壁(4-5前肋间),左侧胸膜,前纵隔,双侧锁骨区淋巴结,骨,左腋窝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6230,23 +6230,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6282,23 +6265,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6474,11 +6440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6503,7 +6469,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6517,7 +6483,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6528,7 +6494,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6556,7 +6522,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -6812,7 +6778,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -6851,7 +6817,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -7018,7 +6984,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -8565,7 +8531,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B160" t="s">
         <v>411</v>
@@ -8908,7 +8874,7 @@
         <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D186" t="s">
         <v>474</v>
@@ -9114,7 +9080,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -9139,7 +9105,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
@@ -9447,7 +9413,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -9472,7 +9438,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B231" t="s">
         <v>49</v>
@@ -9666,7 +9632,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B247" t="s">
         <v>621</v>
@@ -10041,34 +10007,34 @@
         <v>116</v>
       </c>
       <c r="D277" t="s">
-        <v>691</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B278" t="s">
         <v>512</v>
       </c>
       <c r="D278" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
+        <v>693</v>
+      </c>
+      <c r="B279" t="s">
         <v>694</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>695</v>
-      </c>
-      <c r="D279" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
@@ -10077,167 +10043,167 @@
         <v>677</v>
       </c>
       <c r="D280" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B281" t="s">
         <v>22</v>
       </c>
       <c r="C281" t="s">
+        <v>699</v>
+      </c>
+      <c r="D281" t="s">
         <v>700</v>
-      </c>
-      <c r="D281" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
+        <v>701</v>
+      </c>
+      <c r="B282" t="s">
         <v>702</v>
       </c>
-      <c r="B282" t="s">
+      <c r="D282" t="s">
         <v>703</v>
-      </c>
-      <c r="D282" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B283" t="s">
         <v>653</v>
       </c>
       <c r="D283" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B284" t="s">
         <v>512</v>
       </c>
       <c r="D284" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
+        <v>708</v>
+      </c>
+      <c r="B285" t="s">
         <v>709</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>710</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>711</v>
-      </c>
-      <c r="D285" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B286" t="s">
         <v>230</v>
       </c>
       <c r="D286" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B287" t="s">
         <v>172</v>
       </c>
       <c r="D287" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B288" t="s">
         <v>27</v>
       </c>
       <c r="C288" t="s">
+        <v>717</v>
+      </c>
+      <c r="D288" t="s">
         <v>718</v>
-      </c>
-      <c r="D288" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B289" t="s">
         <v>164</v>
       </c>
       <c r="C289" t="s">
+        <v>720</v>
+      </c>
+      <c r="D289" t="s">
         <v>721</v>
-      </c>
-      <c r="D289" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
+        <v>722</v>
+      </c>
+      <c r="B290" t="s">
         <v>723</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
         <v>724</v>
-      </c>
-      <c r="D290" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B291" t="s">
         <v>30</v>
       </c>
       <c r="D291" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B292" t="s">
         <v>209</v>
       </c>
       <c r="D292" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B293" t="s">
         <v>227</v>
       </c>
       <c r="D293" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B294" t="s">
         <v>113</v>
@@ -10248,118 +10214,118 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B295" t="s">
         <v>209</v>
       </c>
       <c r="D295" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
+        <v>733</v>
+      </c>
+      <c r="B296" t="s">
         <v>734</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>735</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>736</v>
-      </c>
-      <c r="D296" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B297" t="s">
         <v>16</v>
       </c>
       <c r="C297" t="s">
+        <v>738</v>
+      </c>
+      <c r="D297" t="s">
         <v>739</v>
-      </c>
-      <c r="D297" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B298" t="s">
         <v>129</v>
       </c>
       <c r="D298" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B299" t="s">
         <v>159</v>
       </c>
       <c r="C299" t="s">
+        <v>743</v>
+      </c>
+      <c r="D299" t="s">
         <v>744</v>
-      </c>
-      <c r="D299" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B300" t="s">
         <v>172</v>
       </c>
       <c r="D300" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B301" t="s">
         <v>172</v>
       </c>
       <c r="D301" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
+        <v>748</v>
+      </c>
+      <c r="B302" t="s">
         <v>749</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>750</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>751</v>
-      </c>
-      <c r="D302" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
+        <v>752</v>
+      </c>
+      <c r="B303" t="s">
+        <v>702</v>
+      </c>
+      <c r="D303" t="s">
         <v>753</v>
-      </c>
-      <c r="B303" t="s">
-        <v>703</v>
-      </c>
-      <c r="D303" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B304" t="s">
         <v>116</v>
@@ -10370,52 +10336,52 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B305" t="s">
         <v>56</v>
       </c>
       <c r="C305" t="s">
+        <v>756</v>
+      </c>
+      <c r="D305" t="s">
         <v>757</v>
-      </c>
-      <c r="D305" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B306" t="s">
         <v>144</v>
       </c>
       <c r="C306" t="s">
+        <v>759</v>
+      </c>
+      <c r="D306" t="s">
         <v>760</v>
-      </c>
-      <c r="D306" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B307" t="s">
         <v>172</v>
       </c>
       <c r="D307" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
+        <v>763</v>
+      </c>
+      <c r="B308" t="s">
         <v>764</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>765</v>
-      </c>
-      <c r="C308" t="s">
-        <v>766</v>
       </c>
       <c r="D308" t="s">
         <v>38</v>
@@ -10423,13 +10389,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B309" t="s">
+        <v>764</v>
+      </c>
+      <c r="C309" t="s">
         <v>765</v>
-      </c>
-      <c r="C309" t="s">
-        <v>766</v>
       </c>
       <c r="D309" t="s">
         <v>38</v>
@@ -10437,35 +10403,35 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
+        <v>767</v>
+      </c>
+      <c r="B310" t="s">
         <v>768</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>769</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>770</v>
-      </c>
-      <c r="D310" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B311" t="s">
         <v>65</v>
       </c>
       <c r="C311" t="s">
+        <v>771</v>
+      </c>
+      <c r="D311" t="s">
         <v>772</v>
-      </c>
-      <c r="D311" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B312" t="s">
         <v>113</v>
@@ -10476,13 +10442,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B313" t="s">
         <v>227</v>
       </c>
       <c r="C313" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D313" t="s">
         <v>551</v>
@@ -10490,113 +10456,113 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B314" t="s">
         <v>13</v>
       </c>
       <c r="C314" t="s">
+        <v>777</v>
+      </c>
+      <c r="D314" t="s">
         <v>778</v>
-      </c>
-      <c r="D314" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B315" t="s">
         <v>172</v>
       </c>
       <c r="D315" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B316" t="s">
         <v>22</v>
       </c>
       <c r="C316" t="s">
+        <v>782</v>
+      </c>
+      <c r="D316" t="s">
         <v>783</v>
-      </c>
-      <c r="D316" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B317" t="s">
         <v>230</v>
       </c>
       <c r="D317" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B318" t="s">
         <v>93</v>
       </c>
       <c r="D318" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B319" t="s">
         <v>116</v>
       </c>
       <c r="D319" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
+        <v>790</v>
+      </c>
+      <c r="B320" t="s">
         <v>791</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>792</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>793</v>
-      </c>
-      <c r="D320" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
+        <v>794</v>
+      </c>
+      <c r="B321" t="s">
         <v>795</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>796</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>797</v>
-      </c>
-      <c r="D321" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
+        <v>798</v>
+      </c>
+      <c r="B322" t="s">
         <v>799</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>800</v>
-      </c>
-      <c r="C322" t="s">
-        <v>801</v>
       </c>
       <c r="D322" t="s">
         <v>245</v>
@@ -10604,63 +10570,63 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B323" t="s">
         <v>22</v>
       </c>
       <c r="C323" t="s">
+        <v>802</v>
+      </c>
+      <c r="D323" t="s">
         <v>803</v>
-      </c>
-      <c r="D323" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B324" t="s">
+        <v>768</v>
+      </c>
+      <c r="C324" t="s">
         <v>769</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>770</v>
-      </c>
-      <c r="D324" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B325" t="s">
         <v>129</v>
       </c>
       <c r="D325" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B326" t="s">
         <v>16</v>
       </c>
       <c r="C326" t="s">
+        <v>808</v>
+      </c>
+      <c r="D326" t="s">
         <v>809</v>
-      </c>
-      <c r="D326" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
+        <v>810</v>
+      </c>
+      <c r="B327" t="s">
         <v>811</v>
-      </c>
-      <c r="B327" t="s">
-        <v>812</v>
       </c>
       <c r="D327" t="s">
         <v>245</v>
@@ -10668,132 +10634,132 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B328" t="s">
         <v>164</v>
       </c>
       <c r="D328" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
+        <v>814</v>
+      </c>
+      <c r="B329" t="s">
         <v>815</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>816</v>
-      </c>
-      <c r="C329" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B330" t="s">
         <v>172</v>
       </c>
       <c r="D330" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
+        <v>819</v>
+      </c>
+      <c r="B331" t="s">
         <v>820</v>
       </c>
-      <c r="B331" t="s">
+      <c r="D331" t="s">
         <v>821</v>
-      </c>
-      <c r="D331" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B332" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C332" t="s">
+        <v>822</v>
+      </c>
+      <c r="D332" t="s">
         <v>823</v>
-      </c>
-      <c r="D332" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
+        <v>824</v>
+      </c>
+      <c r="B333" t="s">
         <v>825</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>826</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>827</v>
-      </c>
-      <c r="D333" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B334" t="s">
         <v>13</v>
       </c>
       <c r="D334" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
+        <v>830</v>
+      </c>
+      <c r="B335" t="s">
         <v>831</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>832</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>833</v>
-      </c>
-      <c r="D335" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B336" t="s">
         <v>227</v>
       </c>
       <c r="D336" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B337" t="s">
         <v>227</v>
       </c>
       <c r="D337" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
+        <v>838</v>
+      </c>
+      <c r="B338" t="s">
         <v>839</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>840</v>
-      </c>
-      <c r="C338" t="s">
-        <v>841</v>
       </c>
       <c r="D338" t="s">
         <v>642</v>
@@ -10801,13 +10767,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B339" t="s">
         <v>22</v>
       </c>
       <c r="C339" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D339" t="s">
         <v>82</v>
@@ -10815,46 +10781,46 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
       </c>
       <c r="D340" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B341" t="s">
         <v>129</v>
       </c>
       <c r="C341" t="s">
+        <v>846</v>
+      </c>
+      <c r="D341" t="s">
         <v>847</v>
-      </c>
-      <c r="D341" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
+        <v>848</v>
+      </c>
+      <c r="B342" t="s">
         <v>849</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>850</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>851</v>
-      </c>
-      <c r="D342" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B343" t="s">
         <v>30</v>
@@ -10865,13 +10831,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
+        <v>853</v>
+      </c>
+      <c r="B344" t="s">
         <v>854</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>855</v>
-      </c>
-      <c r="C344" t="s">
-        <v>856</v>
       </c>
       <c r="D344" t="s">
         <v>393</v>
@@ -10879,16 +10845,16 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B345" t="s">
         <v>16</v>
       </c>
       <c r="C345" t="s">
+        <v>857</v>
+      </c>
+      <c r="D345" t="s">
         <v>858</v>
-      </c>
-      <c r="D345" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
@@ -10907,49 +10873,49 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
+        <v>859</v>
+      </c>
+      <c r="B347" t="s">
         <v>860</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>861</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>862</v>
-      </c>
-      <c r="D347" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B348" t="s">
         <v>209</v>
       </c>
       <c r="D348" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B349" t="s">
         <v>129</v>
       </c>
       <c r="D349" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B350" t="s">
         <v>318</v>
       </c>
       <c r="C350" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -10957,13 +10923,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B351" t="s">
         <v>22</v>
       </c>
       <c r="C351" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D351" t="s">
         <v>393</v>
@@ -10971,13 +10937,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B352" t="s">
         <v>22</v>
       </c>
       <c r="C352" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D352" t="s">
         <v>82</v>
@@ -10985,13 +10951,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B353" t="s">
         <v>93</v>
       </c>
       <c r="C353" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D353" t="s">
         <v>15</v>
@@ -10999,21 +10965,21 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B354" t="s">
         <v>56</v>
       </c>
       <c r="C354" t="s">
+        <v>876</v>
+      </c>
+      <c r="D354" t="s">
         <v>877</v>
-      </c>
-      <c r="D354" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B355" t="s">
         <v>172</v>
@@ -11024,38 +10990,38 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B356" t="s">
         <v>93</v>
       </c>
       <c r="D356" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B357" t="s">
         <v>116</v>
       </c>
       <c r="C357" t="s">
+        <v>881</v>
+      </c>
+      <c r="D357" t="s">
         <v>882</v>
-      </c>
-      <c r="D357" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B358" t="s">
         <v>4</v>
       </c>
       <c r="C358" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D358" t="s">
         <v>6</v>
@@ -11063,66 +11029,66 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B359" t="s">
         <v>116</v>
       </c>
       <c r="D359" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B360" t="s">
         <v>13</v>
       </c>
       <c r="C360" t="s">
+        <v>887</v>
+      </c>
+      <c r="D360" t="s">
         <v>888</v>
-      </c>
-      <c r="D360" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B361" t="s">
         <v>144</v>
       </c>
       <c r="C361" t="s">
+        <v>889</v>
+      </c>
+      <c r="D361" t="s">
         <v>890</v>
-      </c>
-      <c r="D361" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B362" t="s">
         <v>30</v>
       </c>
       <c r="C362" t="s">
+        <v>892</v>
+      </c>
+      <c r="D362" t="s">
         <v>893</v>
-      </c>
-      <c r="D362" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B363" t="s">
         <v>172</v>
       </c>
       <c r="C363" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D363" t="s">
         <v>551</v>
@@ -11130,46 +11096,46 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
+        <v>896</v>
+      </c>
+      <c r="B364" t="s">
+        <v>723</v>
+      </c>
+      <c r="D364" t="s">
         <v>897</v>
-      </c>
-      <c r="B364" t="s">
-        <v>724</v>
-      </c>
-      <c r="D364" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B365" t="s">
         <v>164</v>
       </c>
       <c r="C365" t="s">
+        <v>899</v>
+      </c>
+      <c r="D365" t="s">
         <v>900</v>
-      </c>
-      <c r="D365" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
+        <v>901</v>
+      </c>
+      <c r="B366" t="s">
         <v>902</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>903</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>904</v>
-      </c>
-      <c r="D366" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B367" t="s">
         <v>227</v>
@@ -11180,68 +11146,68 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B368" t="s">
         <v>22</v>
       </c>
       <c r="C368" t="s">
+        <v>907</v>
+      </c>
+      <c r="D368" t="s">
         <v>908</v>
-      </c>
-      <c r="D368" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B369" t="s">
         <v>30</v>
       </c>
       <c r="D369" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B370" t="s">
         <v>116</v>
       </c>
       <c r="D370" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B371" t="s">
         <v>164</v>
       </c>
       <c r="D371" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B372" t="s">
         <v>30</v>
       </c>
       <c r="D372" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
+        <v>917</v>
+      </c>
+      <c r="B373" t="s">
         <v>918</v>
-      </c>
-      <c r="B373" t="s">
-        <v>919</v>
       </c>
       <c r="D373" t="s">
         <v>102</v>
@@ -11249,41 +11215,41 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
+        <v>919</v>
+      </c>
+      <c r="B374" t="s">
         <v>920</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
         <v>921</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" t="s">
         <v>922</v>
-      </c>
-      <c r="D374" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B375" t="s">
         <v>22</v>
       </c>
       <c r="C375" t="s">
+        <v>924</v>
+      </c>
+      <c r="D375" t="s">
         <v>925</v>
-      </c>
-      <c r="D375" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B376" t="s">
         <v>22</v>
       </c>
       <c r="C376" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D376" t="s">
         <v>117</v>
@@ -11291,71 +11257,71 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B377" t="s">
         <v>56</v>
       </c>
       <c r="C377" t="s">
+        <v>928</v>
+      </c>
+      <c r="D377" t="s">
         <v>929</v>
-      </c>
-      <c r="D377" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
+        <v>930</v>
+      </c>
+      <c r="B378" t="s">
         <v>931</v>
       </c>
-      <c r="B378" t="s">
+      <c r="D378" t="s">
         <v>932</v>
-      </c>
-      <c r="D378" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B379" t="s">
         <v>209</v>
       </c>
       <c r="D379" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B380" t="s">
         <v>209</v>
       </c>
       <c r="D380" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B381" t="s">
         <v>22</v>
       </c>
       <c r="D381" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
+        <v>939</v>
+      </c>
+      <c r="B382" t="s">
         <v>940</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>941</v>
-      </c>
-      <c r="C382" t="s">
-        <v>942</v>
       </c>
       <c r="D382" t="s">
         <v>523</v>
@@ -11363,43 +11329,43 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B383" t="s">
         <v>30</v>
       </c>
       <c r="C383" t="s">
+        <v>943</v>
+      </c>
+      <c r="D383" t="s">
         <v>944</v>
-      </c>
-      <c r="D383" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B384" t="s">
         <v>116</v>
       </c>
       <c r="D384" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B385" t="s">
         <v>230</v>
       </c>
       <c r="D385" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B386" t="s">
         <v>666</v>
@@ -11410,127 +11376,127 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B387" t="s">
         <v>49</v>
       </c>
       <c r="C387" t="s">
+        <v>951</v>
+      </c>
+      <c r="D387" t="s">
         <v>952</v>
-      </c>
-      <c r="D387" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
+        <v>953</v>
+      </c>
+      <c r="B388" t="s">
+        <v>811</v>
+      </c>
+      <c r="D388" t="s">
         <v>954</v>
-      </c>
-      <c r="B388" t="s">
-        <v>812</v>
-      </c>
-      <c r="D388" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B389" t="s">
+        <v>795</v>
+      </c>
+      <c r="C389" t="s">
         <v>796</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>797</v>
-      </c>
-      <c r="D389" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B390" t="s">
         <v>16</v>
       </c>
       <c r="C390" t="s">
+        <v>957</v>
+      </c>
+      <c r="D390" t="s">
         <v>958</v>
-      </c>
-      <c r="D390" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
       </c>
       <c r="C391" t="s">
+        <v>960</v>
+      </c>
+      <c r="D391" t="s">
         <v>961</v>
-      </c>
-      <c r="D391" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
+        <v>962</v>
+      </c>
+      <c r="B392" t="s">
         <v>963</v>
       </c>
-      <c r="B392" t="s">
+      <c r="D392" t="s">
         <v>964</v>
-      </c>
-      <c r="D392" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B393" t="s">
         <v>116</v>
       </c>
       <c r="C393" t="s">
+        <v>966</v>
+      </c>
+      <c r="D393" t="s">
         <v>967</v>
-      </c>
-      <c r="D393" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B394" t="s">
         <v>129</v>
       </c>
       <c r="D394" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B395" t="s">
         <v>230</v>
       </c>
       <c r="D395" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
+        <v>972</v>
+      </c>
+      <c r="B396" t="s">
         <v>973</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396" t="s">
         <v>974</v>
-      </c>
-      <c r="C396" t="s">
-        <v>975</v>
       </c>
       <c r="D396" t="s">
         <v>537</v>
@@ -11538,13 +11504,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B397" t="s">
         <v>22</v>
       </c>
       <c r="C397" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D397" t="s">
         <v>82</v>
@@ -11552,116 +11518,116 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B398" t="s">
         <v>27</v>
       </c>
       <c r="C398" t="s">
+        <v>978</v>
+      </c>
+      <c r="D398" t="s">
         <v>979</v>
-      </c>
-      <c r="D398" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B399" t="s">
         <v>116</v>
       </c>
       <c r="C399" t="s">
+        <v>981</v>
+      </c>
+      <c r="D399" t="s">
         <v>982</v>
-      </c>
-      <c r="D399" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B400" t="s">
         <v>172</v>
       </c>
       <c r="D400" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
+        <v>985</v>
+      </c>
+      <c r="B401" t="s">
         <v>986</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>987</v>
       </c>
-      <c r="C401" t="s">
+      <c r="D401" t="s">
         <v>988</v>
-      </c>
-      <c r="D401" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
+        <v>989</v>
+      </c>
+      <c r="B402" t="s">
         <v>990</v>
-      </c>
-      <c r="B402" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
+        <v>992</v>
+      </c>
+      <c r="B404" t="s">
         <v>993</v>
-      </c>
-      <c r="B404" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
+        <v>994</v>
+      </c>
+      <c r="B406" t="s">
         <v>995</v>
-      </c>
-      <c r="B406" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
+        <v>996</v>
+      </c>
+      <c r="B407" t="s">
         <v>997</v>
       </c>
-      <c r="B407" t="s">
+      <c r="D407" t="s">
         <v>998</v>
-      </c>
-      <c r="D407" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B409" t="s">
         <v>1001</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>1002</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1003</v>
       </c>
       <c r="D409" t="s">
         <v>349</v>
@@ -11669,12 +11635,12 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B411" t="s">
         <v>512</v>
@@ -11682,7 +11648,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B412" t="s">
         <v>30</v>
@@ -11690,7 +11656,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B413" t="s">
         <v>4</v>
@@ -11701,29 +11667,29 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B414" t="s">
         <v>209</v>
       </c>
       <c r="D414" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B415" t="s">
         <v>1010</v>
       </c>
-      <c r="B415" t="s">
+      <c r="D415" t="s">
         <v>1011</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B416" t="s">
         <v>230</v>
@@ -11731,44 +11697,44 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B419" t="s">
         <v>1016</v>
       </c>
-      <c r="B419" t="s">
+      <c r="D419" t="s">
         <v>1017</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D420" t="s">
         <v>1019</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B421" t="s">
         <v>1021</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B422" t="s">
         <v>512</v>
@@ -11776,39 +11742,39 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B423" t="s">
         <v>1024</v>
       </c>
-      <c r="B423" t="s">
+      <c r="D423" t="s">
         <v>1025</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B424" t="s">
         <v>30</v>
       </c>
       <c r="D424" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D427" t="s">
         <v>245</v>
@@ -11816,7 +11782,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B428" t="s">
         <v>230</v>
@@ -11824,13 +11790,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C429" t="s">
         <v>1033</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1034</v>
       </c>
       <c r="D429" t="s">
         <v>349</v>
@@ -11838,7 +11804,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B430" t="s">
         <v>93</v>
@@ -11846,18 +11812,18 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B431" t="s">
         <v>1036</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1037</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B432" t="s">
         <v>595</v>
@@ -11865,12 +11831,12 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B434" t="s">
         <v>595</v>
@@ -11878,45 +11844,45 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B435" t="s">
         <v>172</v>
       </c>
       <c r="D435" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B436" t="s">
         <v>1044</v>
       </c>
-      <c r="B436" t="s">
+      <c r="D436" t="s">
         <v>1045</v>
-      </c>
-      <c r="D436" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B437" t="s">
         <v>93</v>
       </c>
       <c r="D437" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B439" t="s">
         <v>512</v>
@@ -11924,28 +11890,28 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B442" t="s">
+        <v>995</v>
+      </c>
+      <c r="D442" t="s">
         <v>1053</v>
-      </c>
-      <c r="B442" t="s">
-        <v>996</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B443" t="s">
         <v>504</v>
@@ -11953,7 +11919,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B444" t="s">
         <v>504</v>
@@ -11961,51 +11927,51 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B445" t="s">
         <v>1057</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>1058</v>
       </c>
-      <c r="C445" t="s">
+      <c r="D445" t="s">
         <v>1059</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B446" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B447" t="s">
         <v>93</v>
       </c>
       <c r="C447" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D447" t="s">
         <v>1063</v>
-      </c>
-      <c r="D447" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B448" t="s">
         <v>1065</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B449" t="s">
         <v>504</v>
@@ -12013,67 +11979,67 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B450" t="s">
         <v>1068</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>1069</v>
-      </c>
-      <c r="C450" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B451" t="s">
         <v>209</v>
       </c>
       <c r="D451" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B452" t="s">
         <v>1073</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>1074</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D453" t="s">
         <v>1076</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B454" t="s">
         <v>13</v>
       </c>
       <c r="D454" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B456" t="s">
         <v>512</v>
@@ -12081,12 +12047,12 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B458" t="s">
         <v>116</v>
@@ -12097,10 +12063,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B459" t="s">
         <v>1084</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1085</v>
       </c>
       <c r="D459" t="s">
         <v>16</v>
@@ -12108,7 +12074,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B460" t="s">
         <v>30</v>
@@ -12116,99 +12082,99 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B461" t="s">
         <v>116</v>
       </c>
       <c r="D461" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B463" t="s">
         <v>1090</v>
       </c>
-      <c r="B463" t="s">
+      <c r="D463" t="s">
         <v>1091</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C464" t="s">
         <v>1093</v>
       </c>
-      <c r="B464" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C464" t="s">
+      <c r="D464" t="s">
         <v>1094</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B465" t="s">
+        <v>702</v>
+      </c>
+      <c r="D465" t="s">
         <v>1096</v>
-      </c>
-      <c r="B465" t="s">
-        <v>703</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D468" t="s">
         <v>1100</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B469" t="s">
         <v>22</v>
       </c>
       <c r="C469" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C470" t="s">
         <v>1104</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B471" t="s">
         <v>512</v>
@@ -12216,7 +12182,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B472" t="s">
         <v>30</v>
@@ -12224,115 +12190,115 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D474" t="s">
         <v>1109</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B476" t="s">
         <v>1112</v>
       </c>
-      <c r="B476" t="s">
+      <c r="D476" t="s">
         <v>1113</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C477" t="s">
         <v>1115</v>
       </c>
-      <c r="B477" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C477" t="s">
+      <c r="D477" t="s">
         <v>1116</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B478" t="s">
         <v>209</v>
       </c>
       <c r="D478" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B479" t="s">
         <v>1120</v>
       </c>
-      <c r="B479" t="s">
+      <c r="D479" t="s">
         <v>1121</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B482" t="s">
         <v>1125</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1126</v>
       </c>
-      <c r="C482" t="s">
+      <c r="D482" t="s">
         <v>1127</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B483" t="s">
         <v>209</v>
       </c>
       <c r="D483" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B484" t="s">
         <v>1131</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B485" t="s">
         <v>30</v>
@@ -12340,42 +12306,42 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B486" t="s">
         <v>1134</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1135</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1136</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B487" t="s">
         <v>1138</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D488" t="s">
         <v>1140</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B490" t="s">
         <v>504</v>
@@ -12383,97 +12349,97 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C491" t="s">
         <v>1144</v>
       </c>
-      <c r="B491" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C491" t="s">
+      <c r="D491" t="s">
         <v>1145</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B492" t="s">
         <v>4</v>
       </c>
       <c r="C492" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D492" t="s">
         <v>1148</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B493" t="s">
         <v>1150</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D495" t="s">
         <v>1153</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B497" t="s">
         <v>1156</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1157</v>
       </c>
-      <c r="C497" t="s">
+      <c r="D497" t="s">
         <v>1158</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B498" t="s">
         <v>1160</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B499" t="s">
         <v>209</v>
       </c>
       <c r="C499" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D499" t="s">
         <v>1163</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B500" t="s">
         <v>230</v>
@@ -12481,78 +12447,78 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B501" t="s">
         <v>13</v>
       </c>
       <c r="D501" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B507" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C507" t="s">
         <v>1058</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B508" t="s">
         <v>1174</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B509" t="s">
         <v>1176</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>1177</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B511" t="s">
         <v>22</v>
@@ -12560,7 +12526,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B512" t="s">
         <v>588</v>
@@ -12568,15 +12534,15 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B513" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B514" t="s">
         <v>93</v>
@@ -12584,7 +12550,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B515" t="s">
         <v>30</v>
@@ -12592,23 +12558,23 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B516" t="s">
         <v>1185</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>1186</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B518" t="s">
         <v>512</v>
@@ -12616,20 +12582,20 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B519" t="s">
         <v>1190</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B521" t="s">
         <v>22</v>
@@ -12637,7 +12603,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B522" t="s">
         <v>504</v>
@@ -12645,12 +12611,12 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B524" t="s">
         <v>512</v>
@@ -12658,18 +12624,18 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B525" t="s">
         <v>1197</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>1198</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B526" t="s">
         <v>149</v>
@@ -12677,7 +12643,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B527" t="s">
         <v>93</v>
@@ -12685,34 +12651,34 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B529" t="s">
         <v>504</v>
       </c>
       <c r="C529" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B530" t="s">
         <v>1205</v>
       </c>
-      <c r="B530" t="s">
+      <c r="C530" t="s">
         <v>1206</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B531" t="s">
         <v>116</v>
@@ -12720,7 +12686,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B532" t="s">
         <v>504</v>
@@ -12728,45 +12694,45 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B533" t="s">
         <v>1210</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1211</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B534" t="s">
         <v>164</v>
       </c>
       <c r="C534" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C535" t="s">
         <v>1215</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B537" t="s">
         <v>209</v>
@@ -12774,18 +12740,18 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B538" t="s">
         <v>504</v>
       </c>
       <c r="C538" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B539" t="s">
         <v>504</v>
@@ -12793,62 +12759,62 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B540" t="s">
         <v>1221</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B542" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B543" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C543" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B545" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B548" t="s">
         <v>595</v>
@@ -12856,7 +12822,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B549" t="s">
         <v>595</v>
@@ -12864,7 +12830,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B550" t="s">
         <v>209</v>
@@ -12872,17 +12838,17 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B553" t="s">
         <v>666</v>
@@ -12890,31 +12856,31 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C555" t="s">
         <v>1236</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B556" t="s">
         <v>1238</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B557" t="s">
         <v>595</v>
@@ -12922,12 +12888,12 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B559" t="s">
         <v>504</v>
@@ -12935,18 +12901,18 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B560" t="s">
         <v>504</v>
       </c>
       <c r="C560" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B561" t="s">
         <v>209</v>
@@ -12954,36 +12920,36 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B562" t="s">
         <v>666</v>
       </c>
       <c r="C562" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B563" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B566" t="s">
         <v>230</v>
@@ -12991,34 +12957,34 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B567" t="s">
         <v>209</v>
       </c>
       <c r="C567" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B568" t="s">
         <v>1254</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>1255</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B570" t="s">
         <v>13</v>
@@ -13026,7 +12992,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B571" t="s">
         <v>595</v>
@@ -13034,12 +13000,12 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B573" t="s">
         <v>116</v>
@@ -13047,7 +13013,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B574" t="s">
         <v>22</v>
@@ -13055,7 +13021,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B575" t="s">
         <v>595</v>
@@ -13063,7 +13029,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B576" t="s">
         <v>595</v>
@@ -13071,7 +13037,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B577" t="s">
         <v>595</v>
@@ -13079,7 +13045,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B578" t="s">
         <v>595</v>
@@ -13087,18 +13053,18 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B579" t="s">
         <v>1267</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>1268</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B580" t="s">
         <v>512</v>
@@ -13106,12 +13072,12 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B582" t="s">
         <v>209</v>
@@ -13119,53 +13085,53 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B584" t="s">
         <v>4</v>
       </c>
       <c r="C584" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B585" t="s">
         <v>209</v>
       </c>
       <c r="C585" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B586" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C587" t="s">
         <v>1278</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B588" t="s">
         <v>512</v>
@@ -13173,53 +13139,53 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B589" t="s">
         <v>512</v>
       </c>
       <c r="C589" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B590" t="s">
         <v>595</v>
       </c>
       <c r="C590" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B591" t="s">
         <v>1285</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>1286</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B592" t="s">
         <v>1288</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B594" t="s">
         <v>512</v>
@@ -13227,69 +13193,69 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B596" t="s">
         <v>209</v>
       </c>
       <c r="C596" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C597" t="s">
         <v>1294</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B598" t="s">
         <v>595</v>
       </c>
       <c r="C598" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B599" t="s">
         <v>22</v>
       </c>
       <c r="C599" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B600" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D602" t="s">
         <v>4</v>
@@ -13297,12 +13263,12 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B604" t="s">
         <v>595</v>
@@ -13310,80 +13276,80 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B605" t="s">
         <v>1305</v>
       </c>
-      <c r="B605" t="s">
+      <c r="D605" t="s">
         <v>1306</v>
-      </c>
-      <c r="D605" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B606" t="s">
         <v>1308</v>
       </c>
-      <c r="B606" t="s">
+      <c r="D606" t="s">
         <v>1309</v>
-      </c>
-      <c r="D606" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B608" t="s">
         <v>245</v>
       </c>
       <c r="D608" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B609" t="s">
         <v>209</v>
       </c>
       <c r="D609" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B610" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D610" t="s">
         <v>1306</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B612" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B613" t="s">
         <v>93</v>
@@ -13394,67 +13360,67 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B614" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C614" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D614" t="s">
         <v>1320</v>
-      </c>
-      <c r="B614" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C614" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D614" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B615" t="s">
         <v>1322</v>
       </c>
-      <c r="B615" t="s">
+      <c r="D615" t="s">
         <v>1323</v>
-      </c>
-      <c r="D615" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D616" t="s">
         <v>1325</v>
-      </c>
-      <c r="D616" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C617" t="s">
         <v>1327</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B619" t="s">
         <v>149</v>
       </c>
       <c r="D619" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B620" t="s">
         <v>512</v>
@@ -13462,86 +13428,86 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B621" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C621" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B622" t="s">
         <v>595</v>
       </c>
       <c r="D622" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C623" t="s">
         <v>1336</v>
       </c>
-      <c r="B623" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C623" t="s">
+      <c r="D623" t="s">
         <v>1337</v>
-      </c>
-      <c r="D623" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D626" t="s">
         <v>1341</v>
-      </c>
-      <c r="D626" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B628" t="s">
         <v>1344</v>
       </c>
-      <c r="B628" t="s">
+      <c r="C628" t="s">
         <v>1345</v>
       </c>
-      <c r="C628" t="s">
+      <c r="D628" t="s">
         <v>1346</v>
-      </c>
-      <c r="D628" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C629" t="s">
         <v>1348</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1349</v>
       </c>
       <c r="D629" t="s">
         <v>349</v>
@@ -13549,38 +13515,38 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B631" t="s">
         <v>666</v>
       </c>
       <c r="D631" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B635" t="s">
         <v>4</v>
@@ -13588,42 +13554,42 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D637" t="s">
         <v>1358</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D637" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B638" t="s">
         <v>230</v>
       </c>
       <c r="D638" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B639" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B640" t="s">
         <v>512</v>
@@ -13631,149 +13597,149 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B642" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C642" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B643" t="s">
         <v>1366</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B644" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C645" t="s">
         <v>1369</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B646" t="s">
         <v>1371</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C647" t="s">
         <v>1373</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B648" t="s">
         <v>209</v>
       </c>
       <c r="D648" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C649" t="s">
         <v>1377</v>
       </c>
-      <c r="B649" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C649" t="s">
+      <c r="D649" t="s">
         <v>1378</v>
-      </c>
-      <c r="D649" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B650" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D650" t="s">
         <v>1121</v>
-      </c>
-      <c r="D650" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B651" t="s">
         <v>13</v>
       </c>
       <c r="C651" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D651" t="s">
         <v>1382</v>
-      </c>
-      <c r="D651" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B652" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D652" t="s">
         <v>1091</v>
-      </c>
-      <c r="D652" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D653" t="s">
         <v>1385</v>
-      </c>
-      <c r="D653" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B654" t="s">
         <v>230</v>
       </c>
       <c r="D654" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B655" t="s">
         <v>93</v>
@@ -13781,13 +13747,13 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B656" t="s">
         <v>187</v>
       </c>
       <c r="C656" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D656" t="s">
         <v>71</v>
@@ -13795,77 +13761,77 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C657" t="s">
         <v>1392</v>
       </c>
-      <c r="B657" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C657" t="s">
+      <c r="D657" t="s">
         <v>1393</v>
-      </c>
-      <c r="D657" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B659" t="s">
         <v>1396</v>
       </c>
-      <c r="B659" t="s">
+      <c r="C659" t="s">
         <v>1397</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C662" t="s">
         <v>1401</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B664" t="s">
         <v>1404</v>
       </c>
-      <c r="B664" t="s">
+      <c r="D664" t="s">
         <v>1405</v>
-      </c>
-      <c r="D664" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B665" t="s">
         <v>1407</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1408</v>
       </c>
       <c r="D665" t="s">
         <v>174</v>
@@ -13873,26 +13839,26 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B666" t="s">
         <v>93</v>
       </c>
       <c r="D666" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D667" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B668" t="s">
         <v>504</v>
@@ -13900,7 +13866,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B669" t="s">
         <v>504</v>
@@ -13908,23 +13874,23 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B670" t="s">
         <v>504</v>
       </c>
       <c r="D670" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B672" t="s">
         <v>209</v>
@@ -13932,51 +13898,51 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B673" t="s">
         <v>4</v>
       </c>
       <c r="C673" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D673" t="s">
         <v>1418</v>
-      </c>
-      <c r="D673" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B674" t="s">
         <v>1420</v>
       </c>
-      <c r="B674" t="s">
+      <c r="C674" t="s">
         <v>1421</v>
       </c>
-      <c r="C674" t="s">
+      <c r="D674" t="s">
         <v>1422</v>
-      </c>
-      <c r="D674" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B676" t="s">
         <v>504</v>
       </c>
       <c r="D676" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B677" t="s">
         <v>245</v>
@@ -13987,7 +13953,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B678" t="s">
         <v>245</v>
@@ -13995,284 +13961,284 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B679" t="s">
         <v>1429</v>
       </c>
-      <c r="B679" t="s">
+      <c r="D679" t="s">
         <v>1430</v>
-      </c>
-      <c r="D679" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D680" t="s">
         <v>1432</v>
-      </c>
-      <c r="D680" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B682" t="s">
         <v>1435</v>
       </c>
-      <c r="B682" t="s">
+      <c r="C682" t="s">
         <v>1436</v>
       </c>
-      <c r="C682" t="s">
+      <c r="D682" t="s">
         <v>1437</v>
-      </c>
-      <c r="D682" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B684" t="s">
         <v>1440</v>
       </c>
-      <c r="B684" t="s">
+      <c r="C684" t="s">
         <v>1441</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C685" t="s">
         <v>1443</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B686" t="s">
         <v>1445</v>
       </c>
-      <c r="B686" t="s">
+      <c r="D686" t="s">
         <v>1446</v>
-      </c>
-      <c r="D686" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B687" t="s">
         <v>159</v>
       </c>
       <c r="D687" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B688" t="s">
         <v>93</v>
       </c>
       <c r="D688" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B690" t="s">
         <v>1452</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B694" t="s">
         <v>1457</v>
       </c>
-      <c r="B694" t="s">
+      <c r="D694" t="s">
         <v>1458</v>
-      </c>
-      <c r="D694" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B695" t="s">
         <v>1460</v>
       </c>
-      <c r="B695" t="s">
+      <c r="C695" t="s">
         <v>1461</v>
       </c>
-      <c r="C695" t="s">
+      <c r="D695" t="s">
         <v>1462</v>
-      </c>
-      <c r="D695" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B696" t="s">
         <v>595</v>
       </c>
       <c r="D696" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B697" t="s">
         <v>512</v>
       </c>
       <c r="D697" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B698" t="s">
+        <v>995</v>
+      </c>
+      <c r="D698" t="s">
         <v>1468</v>
-      </c>
-      <c r="B698" t="s">
-        <v>996</v>
-      </c>
-      <c r="D698" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B699" t="s">
         <v>22</v>
       </c>
       <c r="C699" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D699" t="s">
         <v>1471</v>
-      </c>
-      <c r="D699" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B700" t="s">
+        <v>811</v>
+      </c>
+      <c r="D700" t="s">
         <v>1473</v>
-      </c>
-      <c r="B700" t="s">
-        <v>812</v>
-      </c>
-      <c r="D700" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B701" t="s">
         <v>595</v>
       </c>
       <c r="D701" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B702" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D702" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B704" t="s">
         <v>1479</v>
       </c>
-      <c r="B704" t="s">
-        <v>1480</v>
-      </c>
       <c r="D704" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B705" t="s">
         <v>1481</v>
       </c>
-      <c r="B705" t="s">
+      <c r="D705" t="s">
         <v>1482</v>
-      </c>
-      <c r="D705" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B706" t="s">
         <v>1484</v>
       </c>
-      <c r="B706" t="s">
+      <c r="C706" t="s">
         <v>1485</v>
       </c>
-      <c r="C706" t="s">
+      <c r="D706" t="s">
         <v>1486</v>
-      </c>
-      <c r="D706" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B708" t="s">
         <v>209</v>
@@ -14280,7 +14246,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B709" t="s">
         <v>30</v>
@@ -14288,72 +14254,72 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B712" t="s">
         <v>13</v>
       </c>
       <c r="D712" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B713" t="s">
         <v>512</v>
       </c>
       <c r="D713" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D714" t="s">
         <v>1497</v>
-      </c>
-      <c r="D714" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D715" t="s">
         <v>1499</v>
-      </c>
-      <c r="D715" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D716" t="s">
         <v>1501</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D716" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B717" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C717" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D717" t="s">
         <v>117</v>
@@ -14361,28 +14327,28 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B718" t="s">
         <v>4</v>
       </c>
       <c r="C718" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B721" t="s">
         <v>164</v>
@@ -14390,60 +14356,60 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B722" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C723" t="s">
         <v>1510</v>
       </c>
-      <c r="B723" t="s">
+      <c r="D723" t="s">
         <v>1309</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D723" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B724" t="s">
         <v>1512</v>
       </c>
-      <c r="B724" t="s">
+      <c r="C724" t="s">
         <v>1513</v>
       </c>
-      <c r="C724" t="s">
+      <c r="D724" t="s">
         <v>1514</v>
-      </c>
-      <c r="D724" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B725" t="s">
         <v>595</v>
       </c>
       <c r="D725" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B726" t="s">
         <v>1518</v>
       </c>
-      <c r="B726" t="s">
+      <c r="C726" t="s">
         <v>1519</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1520</v>
       </c>
       <c r="D726" t="s">
         <v>221</v>
@@ -14451,31 +14417,31 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B727" t="s">
         <v>16</v>
       </c>
       <c r="C727" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D727" t="s">
         <v>1522</v>
-      </c>
-      <c r="D727" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B730" t="s">
         <v>13</v>
@@ -14486,45 +14452,45 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B731" t="s">
         <v>1527</v>
       </c>
-      <c r="B731" t="s">
+      <c r="C731" t="s">
         <v>1528</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B733" t="s">
         <v>1531</v>
       </c>
-      <c r="B733" t="s">
+      <c r="D733" t="s">
         <v>1532</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B734" t="s">
         <v>1534</v>
       </c>
-      <c r="B734" t="s">
+      <c r="C734" t="s">
         <v>1535</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B735" t="s">
         <v>504</v>
@@ -14532,104 +14498,104 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B736" t="s">
         <v>209</v>
       </c>
       <c r="D736" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D737" t="s">
         <v>1540</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D737" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B738" t="s">
         <v>1542</v>
       </c>
-      <c r="B738" t="s">
+      <c r="C738" t="s">
         <v>1543</v>
       </c>
-      <c r="C738" t="s">
+      <c r="D738" t="s">
         <v>1544</v>
-      </c>
-      <c r="D738" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D740" t="s">
         <v>1547</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B743" t="s">
         <v>595</v>
       </c>
       <c r="D743" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B745" t="s">
         <v>116</v>
       </c>
       <c r="D745" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B746" t="s">
         <v>1556</v>
       </c>
-      <c r="B746" t="s">
+      <c r="C746" t="s">
         <v>1557</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B747" t="s">
         <v>504</v>
@@ -14637,18 +14603,18 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B748" t="s">
         <v>1560</v>
       </c>
-      <c r="B748" t="s">
+      <c r="C748" t="s">
         <v>1561</v>
-      </c>
-      <c r="C748" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B749" t="s">
         <v>30</v>
@@ -14656,7 +14622,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B750" t="s">
         <v>93</v>
@@ -14664,12 +14630,12 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B752" t="s">
         <v>93</v>
@@ -14677,46 +14643,46 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B753" t="s">
         <v>30</v>
       </c>
       <c r="D753" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D754" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B759" t="s">
         <v>504</v>
@@ -14724,7 +14690,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B760" t="s">
         <v>512</v>
@@ -14732,21 +14698,21 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B761" t="s">
         <v>93</v>
       </c>
       <c r="C761" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D761" t="s">
         <v>1577</v>
-      </c>
-      <c r="D761" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B762" t="s">
         <v>22</v>
@@ -14754,40 +14720,40 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B763" t="s">
         <v>1580</v>
       </c>
-      <c r="B763" t="s">
+      <c r="D763" t="s">
         <v>1581</v>
-      </c>
-      <c r="D763" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B764" t="s">
         <v>595</v>
       </c>
       <c r="D764" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B765" t="s">
         <v>595</v>
       </c>
       <c r="D765" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D766" t="s">
         <v>245</v>
@@ -14795,7 +14761,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B767" t="s">
         <v>93</v>
@@ -14803,111 +14769,111 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B768" t="s">
         <v>1589</v>
       </c>
-      <c r="B768" t="s">
+      <c r="D768" t="s">
         <v>1590</v>
-      </c>
-      <c r="D768" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C769" t="s">
         <v>1592</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B771" t="s">
         <v>230</v>
       </c>
       <c r="D771" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D772" t="s">
         <v>1597</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D772" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B773" t="s">
         <v>1599</v>
       </c>
-      <c r="B773" t="s">
+      <c r="C773" t="s">
         <v>1600</v>
       </c>
-      <c r="C773" t="s">
+      <c r="D773" t="s">
         <v>1601</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B775" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B776" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B777" t="s">
         <v>1606</v>
       </c>
-      <c r="B777" t="s">
+      <c r="C777" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D777" t="s">
         <v>1607</v>
-      </c>
-      <c r="C777" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B778" t="s">
         <v>187</v>
       </c>
       <c r="C778" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D778" t="s">
         <v>71</v>
@@ -14915,7 +14881,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B779" t="s">
         <v>230</v>
@@ -14923,13 +14889,13 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B780" t="s">
         <v>164</v>
       </c>
       <c r="C780" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D780" t="s">
         <v>71</v>
@@ -14937,52 +14903,52 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D781" t="s">
         <v>1614</v>
-      </c>
-      <c r="D781" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B783" t="s">
         <v>1617</v>
       </c>
-      <c r="B783" t="s">
+      <c r="C783" t="s">
         <v>1618</v>
-      </c>
-      <c r="C783" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B785" t="s">
         <v>666</v>
       </c>
       <c r="D785" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B787" t="s">
         <v>22</v>
@@ -14990,96 +14956,96 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C789" t="s">
         <v>1626</v>
       </c>
-      <c r="B789" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C789" t="s">
+      <c r="D789" t="s">
         <v>1627</v>
-      </c>
-      <c r="D789" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B790" t="s">
         <v>4</v>
       </c>
       <c r="D790" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D793" t="s">
         <v>1632</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B794" t="s">
         <v>1634</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B795" t="s">
         <v>1636</v>
       </c>
-      <c r="B795" t="s">
+      <c r="C795" t="s">
         <v>1637</v>
       </c>
-      <c r="C795" t="s">
+      <c r="D795" t="s">
         <v>1638</v>
-      </c>
-      <c r="D795" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C796" t="s">
         <v>1640</v>
-      </c>
-      <c r="B796" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C796" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B797" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D798" t="s">
         <v>117</v>
@@ -15087,7 +15053,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B799" t="s">
         <v>504</v>
@@ -15095,57 +15061,57 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C800" t="s">
         <v>1645</v>
       </c>
-      <c r="B800" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C800" t="s">
+      <c r="D800" t="s">
         <v>1646</v>
-      </c>
-      <c r="D800" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B801" t="s">
         <v>1648</v>
       </c>
-      <c r="B801" t="s">
+      <c r="C801" t="s">
         <v>1649</v>
-      </c>
-      <c r="C801" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B802" t="s">
         <v>1651</v>
       </c>
-      <c r="B802" t="s">
+      <c r="D802" t="s">
         <v>1652</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B803" t="s">
         <v>1654</v>
       </c>
-      <c r="B803" t="s">
+      <c r="C803" t="s">
         <v>1655</v>
       </c>
-      <c r="C803" t="s">
+      <c r="D803" t="s">
         <v>1656</v>
-      </c>
-      <c r="D803" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B804" t="s">
         <v>4</v>
@@ -15153,12 +15119,12 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B806" t="s">
         <v>512</v>
@@ -15166,12 +15132,12 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B808" t="s">
         <v>30</v>
@@ -15179,76 +15145,76 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B809" t="s">
         <v>1663</v>
       </c>
-      <c r="B809" t="s">
+      <c r="C809" t="s">
         <v>1664</v>
       </c>
-      <c r="C809" t="s">
+      <c r="D809" t="s">
         <v>1665</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B810" t="s">
         <v>209</v>
       </c>
       <c r="D810" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B811" t="s">
         <v>1669</v>
       </c>
-      <c r="B811" t="s">
+      <c r="C811" t="s">
         <v>1670</v>
       </c>
-      <c r="C811" t="s">
+      <c r="D811" t="s">
         <v>1671</v>
-      </c>
-      <c r="D811" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C812" t="s">
         <v>1673</v>
       </c>
-      <c r="B812" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C812" t="s">
+      <c r="D812" t="s">
         <v>1674</v>
-      </c>
-      <c r="D812" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B813" t="s">
         <v>504</v>
       </c>
       <c r="C813" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B815" t="s">
         <v>512</v>
@@ -15256,124 +15222,124 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D817" t="s">
         <v>1680</v>
-      </c>
-      <c r="B817" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D817" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B818" t="s">
         <v>1682</v>
       </c>
-      <c r="B818" t="s">
+      <c r="C818" t="s">
         <v>1683</v>
       </c>
-      <c r="C818" t="s">
+      <c r="D818" t="s">
         <v>1684</v>
-      </c>
-      <c r="D818" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C819" t="s">
         <v>1686</v>
       </c>
-      <c r="B819" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C819" t="s">
+      <c r="D819" t="s">
         <v>1687</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B820" t="s">
         <v>1689</v>
       </c>
-      <c r="B820" t="s">
+      <c r="C820" t="s">
         <v>1690</v>
-      </c>
-      <c r="C820" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C821" t="s">
         <v>1692</v>
       </c>
-      <c r="B821" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C821" t="s">
+      <c r="D821" t="s">
         <v>1693</v>
-      </c>
-      <c r="D821" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D824" t="s">
         <v>1697</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D824" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D825" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B826" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B827" t="s">
         <v>504</v>
       </c>
       <c r="D827" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B828" t="s">
         <v>116</v>
@@ -15381,12 +15347,12 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B830" t="s">
         <v>13</v>
@@ -15394,29 +15360,29 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D831" t="s">
         <v>1706</v>
-      </c>
-      <c r="B831" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D831" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B832" t="s">
         <v>1708</v>
       </c>
-      <c r="B832" t="s">
+      <c r="C832" t="s">
         <v>1709</v>
-      </c>
-      <c r="C832" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B833" t="s">
         <v>230</v>
@@ -15424,15 +15390,15 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D834" t="s">
         <v>1712</v>
-      </c>
-      <c r="D834" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B835" t="s">
         <v>504</v>
@@ -15440,7 +15406,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B836" t="s">
         <v>93</v>
@@ -15448,18 +15414,18 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B837" t="s">
         <v>595</v>
       </c>
       <c r="D837" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D838" t="s">
         <v>93</v>
@@ -15467,44 +15433,44 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B841" t="s">
         <v>1721</v>
       </c>
-      <c r="B841" t="s">
+      <c r="D841" t="s">
         <v>1722</v>
-      </c>
-      <c r="D841" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B842" t="s">
         <v>512</v>
       </c>
       <c r="D842" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D844" t="s">
         <v>349</v>
@@ -15512,59 +15478,59 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B845" t="s">
         <v>595</v>
       </c>
       <c r="D845" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C846" t="s">
         <v>1730</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C846" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B847" t="s">
         <v>16</v>
       </c>
       <c r="D847" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B849" t="s">
         <v>187</v>
       </c>
       <c r="C849" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D849" t="s">
         <v>1736</v>
-      </c>
-      <c r="D849" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B850" t="s">
         <v>512</v>
@@ -15572,15 +15538,15 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B851" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A852" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B852" t="s">
         <v>22</v>
@@ -15588,53 +15554,53 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A853" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B853" t="s">
         <v>209</v>
       </c>
       <c r="D853" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D854" t="s">
         <v>1743</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A855" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D855" t="s">
         <v>1745</v>
-      </c>
-      <c r="D855" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B856" t="s">
         <v>595</v>
       </c>
       <c r="D856" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B857" t="s">
         <v>1749</v>
-      </c>
-      <c r="B857" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B858" t="s">
         <v>512</v>
@@ -15642,18 +15608,18 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B859" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B860" t="s">
         <v>1753</v>
-      </c>
-      <c r="B860" t="s">
-        <v>1754</v>
       </c>
       <c r="C860" t="s">
         <v>647</v>
@@ -15661,7 +15627,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B861" t="s">
         <v>209</v>
@@ -15669,35 +15635,35 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B862" t="s">
         <v>209</v>
       </c>
       <c r="C862" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D862" t="s">
         <v>1757</v>
-      </c>
-      <c r="D862" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B863" t="s">
         <v>1759</v>
       </c>
-      <c r="B863" t="s">
+      <c r="C863" t="s">
         <v>1760</v>
       </c>
-      <c r="C863" t="s">
+      <c r="D863" t="s">
         <v>1761</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B864" t="s">
         <v>512</v>
@@ -15705,47 +15671,47 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D865" t="s">
         <v>1764</v>
-      </c>
-      <c r="B865" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D865" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B867" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B868" t="s">
         <v>260</v>
       </c>
       <c r="D868" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B870" t="s">
         <v>93</v>
@@ -15753,29 +15719,29 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B871" t="s">
         <v>1772</v>
       </c>
-      <c r="B871" t="s">
+      <c r="D871" t="s">
         <v>1773</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B872" t="s">
         <v>230</v>
       </c>
       <c r="D872" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B873" t="s">
         <v>4</v>
@@ -15783,53 +15749,53 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B874" t="s">
         <v>209</v>
       </c>
       <c r="D874" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D875" t="s">
         <v>1779</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D875" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D877" t="s">
         <v>1782</v>
-      </c>
-      <c r="B877" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D877" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B878" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B879" t="s">
         <v>164</v>
@@ -15840,84 +15806,84 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B881" t="s">
         <v>504</v>
       </c>
       <c r="D881" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B882" t="s">
         <v>22</v>
       </c>
       <c r="C882" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D882" t="s">
         <v>1789</v>
-      </c>
-      <c r="D882" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B883" t="s">
         <v>245</v>
       </c>
       <c r="D883" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C884" t="s">
         <v>1792</v>
-      </c>
-      <c r="B884" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C884" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B885" t="s">
         <v>1794</v>
       </c>
-      <c r="B885" t="s">
+      <c r="C885" t="s">
         <v>1795</v>
       </c>
-      <c r="C885" t="s">
+      <c r="D885" t="s">
         <v>1796</v>
-      </c>
-      <c r="D885" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B887" t="s">
         <v>1799</v>
       </c>
-      <c r="B887" t="s">
-        <v>1800</v>
-      </c>
       <c r="C887" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D887" t="s">
         <v>71</v>
@@ -15925,12 +15891,12 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B889" t="s">
         <v>512</v>
@@ -15938,7 +15904,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B890" t="s">
         <v>93</v>
@@ -15946,40 +15912,40 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D891" t="s">
         <v>1804</v>
-      </c>
-      <c r="D891" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C892" t="s">
         <v>1806</v>
       </c>
-      <c r="B892" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C892" t="s">
-        <v>1807</v>
-      </c>
       <c r="D892" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B894" t="s">
         <v>1809</v>
       </c>
-      <c r="B894" t="s">
+      <c r="C894" t="s">
         <v>1810</v>
-      </c>
-      <c r="C894" t="s">
-        <v>1811</v>
       </c>
       <c r="D894" t="s">
         <v>6</v>
@@ -15987,7 +15953,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B895" t="s">
         <v>30</v>
@@ -15995,7 +15961,7 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B896" t="s">
         <v>13</v>
@@ -16003,18 +15969,18 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B897" t="s">
         <v>1814</v>
       </c>
-      <c r="B897" t="s">
+      <c r="D897" t="s">
         <v>1815</v>
-      </c>
-      <c r="D897" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B898" t="s">
         <v>512</v>
@@ -16022,32 +15988,32 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B899" t="s">
         <v>230</v>
       </c>
       <c r="C899" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D899" t="s">
         <v>1819</v>
-      </c>
-      <c r="D899" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B900" t="s">
         <v>1821</v>
       </c>
-      <c r="B900" t="s">
-        <v>1822</v>
-      </c>
       <c r="C900" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B901" t="s">
         <v>512</v>
@@ -16055,7 +16021,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B902" t="s">
         <v>504</v>
@@ -16063,7 +16029,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B903" t="s">
         <v>504</v>
@@ -16071,21 +16037,21 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B904" t="s">
         <v>164</v>
       </c>
       <c r="C904" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D904" t="s">
         <v>1827</v>
-      </c>
-      <c r="D904" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B905" t="s">
         <v>22</v>
@@ -16093,31 +16059,31 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B908" t="s">
         <v>1832</v>
       </c>
-      <c r="B908" t="s">
+      <c r="C908" t="s">
         <v>1833</v>
       </c>
-      <c r="C908" t="s">
+      <c r="D908" t="s">
         <v>1834</v>
-      </c>
-      <c r="D908" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B909" t="s">
         <v>504</v>
@@ -16125,12 +16091,12 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D911" t="s">
         <v>149</v>
@@ -16138,29 +16104,29 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B912" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C913" t="s">
         <v>1840</v>
       </c>
-      <c r="B913" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C913" t="s">
+      <c r="D913" t="s">
         <v>1841</v>
-      </c>
-      <c r="D913" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B914" t="s">
         <v>30</v>
@@ -16168,58 +16134,58 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B917" t="s">
         <v>1846</v>
       </c>
-      <c r="B917" t="s">
+      <c r="C917" t="s">
         <v>1847</v>
-      </c>
-      <c r="C917" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C919" t="s">
         <v>1850</v>
       </c>
-      <c r="B919" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C919" t="s">
+      <c r="D919" t="s">
         <v>1851</v>
-      </c>
-      <c r="D919" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B920" t="s">
         <v>22</v>
       </c>
       <c r="C920" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B921" t="s">
         <v>230</v>
@@ -16227,53 +16193,53 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B924" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D924" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B925" t="s">
         <v>1858</v>
       </c>
-      <c r="B925" t="s">
+      <c r="C925" t="s">
         <v>1859</v>
-      </c>
-      <c r="C925" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B926" t="s">
         <v>1861</v>
       </c>
-      <c r="B926" t="s">
+      <c r="C926" t="s">
         <v>1862</v>
       </c>
-      <c r="C926" t="s">
+      <c r="D926" t="s">
         <v>1863</v>
-      </c>
-      <c r="D926" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B927" t="s">
         <v>230</v>
@@ -16284,131 +16250,131 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B930" t="s">
         <v>595</v>
       </c>
       <c r="D930" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B931" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D931" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B932" t="s">
         <v>504</v>
       </c>
       <c r="D932" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B933" t="s">
         <v>209</v>
       </c>
       <c r="D933" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B934" t="s">
         <v>504</v>
       </c>
       <c r="C934" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D934" t="s">
         <v>1875</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D936" t="s">
         <v>1878</v>
-      </c>
-      <c r="D936" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B938" t="s">
         <v>172</v>
       </c>
       <c r="D938" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B939" t="s">
         <v>209</v>
       </c>
       <c r="D939" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B941" t="s">
         <v>227</v>
       </c>
       <c r="D941" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B942" t="s">
         <v>512</v>
@@ -16416,39 +16382,39 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B943" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B944" t="s">
         <v>13</v>
       </c>
       <c r="D944" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D946" t="s">
         <v>1891</v>
-      </c>
-      <c r="D946" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B947" t="s">
         <v>209</v>
@@ -16456,7 +16422,7 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B948" t="s">
         <v>93</v>
@@ -16464,12 +16430,12 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B950" t="s">
         <v>504</v>
@@ -16477,31 +16443,31 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B951" t="s">
         <v>1897</v>
       </c>
-      <c r="B951" t="s">
+      <c r="C951" t="s">
         <v>1898</v>
       </c>
-      <c r="C951" t="s">
+      <c r="D951" t="s">
         <v>1899</v>
-      </c>
-      <c r="D951" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B954" t="s">
         <v>512</v>
@@ -16509,104 +16475,104 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D957" t="s">
         <v>1906</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C957" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D957" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B960" t="s">
         <v>666</v>
       </c>
       <c r="C960" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D960" t="s">
         <v>1911</v>
-      </c>
-      <c r="D960" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B961" t="s">
         <v>1913</v>
       </c>
-      <c r="B961" t="s">
+      <c r="D961" t="s">
         <v>1914</v>
-      </c>
-      <c r="D961" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B962" t="s">
         <v>16</v>
       </c>
       <c r="C962" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B963" t="s">
         <v>230</v>
       </c>
       <c r="D963" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C964" t="s">
         <v>1919</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C964" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B966" t="s">
         <v>512</v>
@@ -16614,133 +16580,133 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C969" t="s">
         <v>1925</v>
       </c>
-      <c r="B969" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C969" t="s">
+      <c r="D969" t="s">
         <v>1926</v>
-      </c>
-      <c r="D969" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B970" t="s">
         <v>1928</v>
       </c>
-      <c r="B970" t="s">
+      <c r="C970" t="s">
         <v>1929</v>
       </c>
-      <c r="C970" t="s">
+      <c r="D970" t="s">
         <v>1930</v>
-      </c>
-      <c r="D970" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C972" t="s">
         <v>1933</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C972" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B973" t="s">
         <v>504</v>
       </c>
       <c r="D973" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B974" t="s">
         <v>4</v>
       </c>
       <c r="D974" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B975" t="s">
         <v>1939</v>
       </c>
-      <c r="B975" t="s">
+      <c r="C975" t="s">
         <v>1940</v>
       </c>
-      <c r="C975" t="s">
-        <v>1941</v>
-      </c>
       <c r="D975" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B976" t="s">
         <v>1942</v>
       </c>
-      <c r="B976" t="s">
+      <c r="D976" t="s">
         <v>1943</v>
-      </c>
-      <c r="D976" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A977" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B977" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D977" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A978" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C978" t="s">
         <v>1946</v>
       </c>
-      <c r="B978" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C978" t="s">
+      <c r="D978" t="s">
         <v>1947</v>
-      </c>
-      <c r="D978" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A979" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B979" t="s">
         <v>30</v>
@@ -16751,47 +16717,47 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A980" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A981" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A982" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B982" t="s">
         <v>595</v>
       </c>
       <c r="D982" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A983" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A984" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C984" t="s">
         <v>1955</v>
       </c>
-      <c r="B984" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C984" t="s">
+      <c r="D984" t="s">
         <v>1956</v>
-      </c>
-      <c r="D984" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A985" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B985" t="s">
         <v>93</v>
@@ -16799,25 +16765,25 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A986" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A987" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B987" t="s">
         <v>1960</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A988" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A989" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D989" t="s">
         <v>245</v>
@@ -16825,113 +16791,113 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A990" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B990" t="s">
         <v>1964</v>
       </c>
-      <c r="B990" t="s">
+      <c r="D990" t="s">
         <v>1965</v>
-      </c>
-      <c r="D990" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A991" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A992" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B992" t="s">
         <v>666</v>
       </c>
       <c r="D992" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A993" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C993" t="s">
         <v>1970</v>
       </c>
-      <c r="B993" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C993" t="s">
-        <v>1971</v>
-      </c>
       <c r="D993" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A994" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A995" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B995" t="s">
         <v>22</v>
       </c>
       <c r="C995" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D995" t="s">
         <v>1974</v>
-      </c>
-      <c r="D995" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A996" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B996" t="s">
         <v>1976</v>
       </c>
-      <c r="B996" t="s">
+      <c r="C996" t="s">
         <v>1977</v>
       </c>
-      <c r="C996" t="s">
+      <c r="D996" t="s">
         <v>1978</v>
-      </c>
-      <c r="D996" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A997" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A998" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A999" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B999" t="s">
         <v>1982</v>
       </c>
-      <c r="B999" t="s">
+      <c r="C999" t="s">
         <v>1983</v>
       </c>
-      <c r="C999" t="s">
-        <v>1984</v>
-      </c>
       <c r="D999" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1000" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1000" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1001" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1001" t="s">
         <v>230</v>

--- a/data/task2_train_reformat.xlsx
+++ b/data/task2_train_reformat.xlsx
@@ -6164,14 +6164,14 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A597" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C614" activeCellId="0" sqref="C614"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A984" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1005" activeCellId="0" sqref="A1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="29.9329896907216"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57216494845361"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="29.3041237113402"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.26288659793815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/task2_train_reformat.xlsx
+++ b/data/task2_train_reformat.xlsx
@@ -6170,8 +6170,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="29.3041237113402"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.26288659793815"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="28.6752577319588"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10309278350515"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/task2_train_reformat.xlsx
+++ b/data/task2_train_reformat.xlsx
@@ -6164,14 +6164,13 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A984" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1005" activeCellId="0" sqref="A1005"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A924" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A925" activeCellId="0" sqref="925:925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="28.6752577319588"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10309278350515"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="28.0567010309278"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
